--- a/data/operator_def_1.xlsx
+++ b/data/operator_def_1.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-1b/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E215B4C4-6822-204F-ADF8-7BEA40099363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC8258C-2065-B44C-AB70-AB2ED11BE70E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="460" windowWidth="23620" windowHeight="15460" activeTab="1" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="1980" yWindow="780" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resources" sheetId="1" r:id="rId1"/>
-    <sheet name="Countries" sheetId="2" r:id="rId2"/>
+    <sheet name="Operators" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,100 +25,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>analog to population</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>analog to metallic elements</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>analog to timber</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>analog to metallic alloys</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>analog to electronics</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>analog to housing (and housing sufficiency)</t>
-  </si>
-  <si>
-    <t>Atlantis</t>
-  </si>
-  <si>
-    <t>Brobdingnag</t>
-  </si>
-  <si>
-    <t>Carpania</t>
-  </si>
-  <si>
-    <t>Dinotopia</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>R21'</t>
-  </si>
-  <si>
-    <t>R22'</t>
-  </si>
-  <si>
-    <t>R23'</t>
-  </si>
-  <si>
-    <t>waste (metallic alloys)</t>
-  </si>
-  <si>
-    <t>waste (electronics)</t>
-  </si>
-  <si>
-    <t>waste (housing)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>?ARj &lt;= ?C(?Rj)</t>
+  </si>
+  <si>
+    <t>alloys_transform</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 1)(R2 2))(OUTPUTS (R1 1)(R21 1)(R21’ 1))</t>
+  </si>
+  <si>
+    <t>electronics_transform</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 3) (R2 2) (R21 2)) (OUTPUTS (R22 2) (R22’ 2) (R1 3))</t>
+  </si>
+  <si>
+    <t>?AIk &lt;= ?C(?Rk)</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 5) (R2, 1) (R3 5) (R21 3) (OUTPUTS (R1 5) (R23, 1) (R23’ 1))</t>
+  </si>
+  <si>
+    <t>housing_transform</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,13 +104,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,283 +440,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3421B273-1F81-1C47-8827-B054C4E3516E}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B5BFC-574A-244D-8E0C-16B41A28F5E3}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="68.33203125" customWidth="1"/>
+    <col min="2" max="2" width="57.83203125" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="34">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1">
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="34">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="34">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B5BFC-574A-244D-8E0C-16B41A28F5E3}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1">
-        <v>700</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1">
-        <v>300</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1200</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>300</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1">
-        <v>200</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1">
-        <v>500</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1700</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1"/>
-    <row r="8" spans="1:7" s="1" customFormat="1"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/operator_def_1.xlsx
+++ b/data/operator_def_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC8258C-2065-B44C-AB70-AB2ED11BE70E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F22B511-20A4-1146-82B3-84CAA734BBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="780" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="2840" yWindow="3500" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="2" r:id="rId1"/>
@@ -42,22 +42,22 @@
     <t>alloys_transform</t>
   </si>
   <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 1)(R2 2))(OUTPUTS (R1 1)(R21 1)(R21’ 1))</t>
-  </si>
-  <si>
     <t>electronics_transform</t>
   </si>
   <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 3) (R2 2) (R21 2)) (OUTPUTS (R22 2) (R22’ 2) (R1 3))</t>
-  </si>
-  <si>
     <t>?AIk &lt;= ?C(?Rk)</t>
   </si>
   <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 5) (R2, 1) (R3 5) (R21 3) (OUTPUTS (R1 5) (R23, 1) (R23’ 1))</t>
-  </si>
-  <si>
     <t>housing_transform</t>
+  </si>
+  <si>
+    <t>"('TRANSFORM', '?C', ('INPUTS', ('R1', 1), ('R2', 2)), ('OUTPUTS', ('R1', 1), ('R21', 1), ('R21\'’, 1)))"</t>
+  </si>
+  <si>
+    <t>"('TRANSFORM', '?C', ('INPUTS', ('R1', 5), ('R2', 1), ('R3', 5), ('R21', 3)), ('OUTPUTS', ('R1', 5), ('R23', 1), ('R23', 1)))"</t>
+  </si>
+  <si>
+    <t>"('TRANSFORM', '?C', ('INPUTS', ('R1', 3), ('R2', 2), ('R21', 2)), ('OUTPUTS', ('R22', 2), ('R22’, 2), ('R1', 3)))"</t>
   </si>
 </sst>
 </file>
@@ -119,12 +119,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -469,8 +469,8 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -478,10 +478,10 @@
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="34">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -489,18 +489,18 @@
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="34">
       <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1">

--- a/data/operator_def_1.xlsx
+++ b/data/operator_def_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F22B511-20A4-1146-82B3-84CAA734BBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB1338B-615E-624B-AAD9-6A452D95971D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="3500" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="2840" yWindow="2540" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="2" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>electronics_transform</t>
   </si>
   <si>
-    <t>?AIk &lt;= ?C(?Rk)</t>
-  </si>
-  <si>
     <t>housing_transform</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>"('TRANSFORM', '?C', ('INPUTS', ('R1', 3), ('R2', 2), ('R21', 2)), ('OUTPUTS', ('R22', 2), ('R22’, 2), ('R1', 3)))"</t>
+  </si>
+  <si>
+    <t>?ARk &lt;= ?C(?Rk)</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -489,13 +489,13 @@
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="34">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1">

--- a/data/operator_def_1.xlsx
+++ b/data/operator_def_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB1338B-615E-624B-AAD9-6A452D95971D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215AC7B6-EC5A-9D49-ADB8-30473FF0FB3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2540" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="1400" yWindow="1420" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="2" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Operation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Definition</t>
   </si>
@@ -48,23 +45,44 @@
     <t>housing_transform</t>
   </si>
   <si>
-    <t>"('TRANSFORM', '?C', ('INPUTS', ('R1', 1), ('R2', 2)), ('OUTPUTS', ('R1', 1), ('R21', 1), ('R21\'’, 1)))"</t>
-  </si>
-  <si>
-    <t>"('TRANSFORM', '?C', ('INPUTS', ('R1', 5), ('R2', 1), ('R3', 5), ('R21', 3)), ('OUTPUTS', ('R1', 5), ('R23', 1), ('R23', 1)))"</t>
-  </si>
-  <si>
-    <t>"('TRANSFORM', '?C', ('INPUTS', ('R1', 3), ('R2', 2), ('R21', 2)), ('OUTPUTS', ('R22', 2), ('R22’, 2), ('R1', 3)))"</t>
+    <t>Operation Name</t>
+  </si>
+  <si>
+    <t>Operation Type</t>
+  </si>
+  <si>
+    <t>TRANSFORM</t>
+  </si>
+  <si>
+    <t>TRANSFER</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>(TRANSFER ?Cj1 ?Cj2 (?Ri ?ARi))</t>
+  </si>
+  <si>
+    <t>?ARi &lt;= ?Cj1(?Ri)</t>
   </si>
   <si>
     <t>?ARk &lt;= ?C(?Rk)</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 1) (R2 2)) (OUTPUTS (R1 1) (R21 1) (R21' 1)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 3) (R2 2) (R21 2)) (OUTPUTS (R22 2) (R22' 2) (R1 3)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 5) (R2 1) (R3 5) (R21 3)) (OUTPUTS (R1 5) (R23 1) (R23' 1)))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +100,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,6 +158,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,99 +479,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B5BFC-574A-244D-8E0C-16B41A28F5E3}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="68.33203125" customWidth="1"/>
-    <col min="2" max="2" width="57.83203125" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="75.5" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="17">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="34">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="17">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="34">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="17">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="34">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1">
+    <row r="7" spans="1:4" s="1" customFormat="1">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1">
+    <row r="8" spans="1:4" s="1" customFormat="1">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2">

--- a/data/operator_def_1.xlsx
+++ b/data/operator_def_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215AC7B6-EC5A-9D49-ADB8-30473FF0FB3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC7E7DB-E8BE-644F-AAA0-360BBDBC1D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1420" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="-360" yWindow="540" windowWidth="25520" windowHeight="14520" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Definition</t>
   </si>
@@ -66,9 +66,6 @@
     <t>?ARi &lt;= ?Cj1(?Ri)</t>
   </si>
   <si>
-    <t>?ARk &lt;= ?C(?Rk)</t>
-  </si>
-  <si>
     <t>(TRANSFORM ?C (INPUTS (R1 1) (R2 2)) (OUTPUTS (R1 1) (R21 1) (R21' 1)))</t>
   </si>
   <si>
@@ -76,6 +73,30 @@
   </si>
   <si>
     <t>(TRANSFORM ?C (INPUTS (R1 5) (R2 1) (R3 5) (R21 3)) (OUTPUTS (R1 5) (R23 1) (R23' 1)))</t>
+  </si>
+  <si>
+    <t>food_transform</t>
+  </si>
+  <si>
+    <t>farm_transform</t>
+  </si>
+  <si>
+    <t>potentialFossilEnergyUsable_transform</t>
+  </si>
+  <si>
+    <t>potentialRenewableEnergyUsable_transform</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R25 3) (R5 4) (R22 2)) (OUTPUTS (R24 3) (R24' 1)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 5) (R4 2) (R3 4) (R21 2) (R22 2) (R5 3)) (OUTPUTS (R1 5) (R25 1) (R25' 3)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 3) (R4 1) (R3 2) (R22 3) (R21 2) (R7 1)) (OUTPUTS (R1 3) (R27 1) (R27' 0.5)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 3) (R4 1) (R5 5) (R6 1) (R22 2) (R21 2)) (OUTPUTS (R1 3) (R26 1) (R26' 1)))</t>
   </si>
 </sst>
 </file>
@@ -136,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,17 +174,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,26 +508,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B5BFC-574A-244D-8E0C-16B41A28F5E3}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="75.5" customWidth="1"/>
+    <col min="3" max="3" width="94" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -514,8 +541,8 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>14</v>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
@@ -528,52 +555,96 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="17">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="17">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="17">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="3"/>
@@ -583,9 +654,6 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="3"/>

--- a/data/operator_def_1.xlsx
+++ b/data/operator_def_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC7E7DB-E8BE-644F-AAA0-360BBDBC1D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDDD061-AC78-0A47-BC29-A33451E0B65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="540" windowWidth="25520" windowHeight="14520" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="500" yWindow="540" windowWidth="25520" windowHeight="14520" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="2" r:id="rId1"/>
@@ -93,10 +93,10 @@
     <t>(TRANSFORM ?C (INPUTS (R1 5) (R4 2) (R3 4) (R21 2) (R22 2) (R5 3)) (OUTPUTS (R1 5) (R25 1) (R25' 3)))</t>
   </si>
   <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 3) (R4 1) (R3 2) (R22 3) (R21 2) (R7 1)) (OUTPUTS (R1 3) (R27 1) (R27' 0.5)))</t>
-  </si>
-  <si>
     <t>(TRANSFORM ?C (INPUTS (R1 3) (R4 1) (R5 5) (R6 1) (R22 2) (R21 2)) (OUTPUTS (R1 3) (R26 1) (R26' 1)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 3) (R4 1) (R3 2) (R22 3) (R21 2) (R7 1)) (OUTPUTS (R1 3) (R27 1) (R27' 1)))</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -612,7 +612,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
@@ -626,7 +626,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>2</v>

--- a/data/operator_def_1.xlsx
+++ b/data/operator_def_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDDD061-AC78-0A47-BC29-A33451E0B65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8107E37-25FC-7149-9245-E5033830CB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="540" windowWidth="25520" windowHeight="14520" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="1580" yWindow="520" windowWidth="24800" windowHeight="14520" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="2" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>?ARi &lt;= ?Cj1(?Ri)</t>
   </si>
   <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 1) (R2 2)) (OUTPUTS (R1 1) (R21 1) (R21' 1)))</t>
-  </si>
-  <si>
     <t>(TRANSFORM ?C (INPUTS (R1 3) (R2 2) (R21 2)) (OUTPUTS (R22 2) (R22' 2) (R1 3)))</t>
   </si>
   <si>
@@ -87,16 +84,19 @@
     <t>potentialRenewableEnergyUsable_transform</t>
   </si>
   <si>
-    <t>(TRANSFORM ?C (INPUTS (R25 3) (R5 4) (R22 2)) (OUTPUTS (R24 3) (R24' 1)))</t>
-  </si>
-  <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 5) (R4 2) (R3 4) (R21 2) (R22 2) (R5 3)) (OUTPUTS (R1 5) (R25 1) (R25' 3)))</t>
-  </si>
-  <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 3) (R4 1) (R5 5) (R6 1) (R22 2) (R21 2)) (OUTPUTS (R1 3) (R26 1) (R26' 1)))</t>
-  </si>
-  <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 3) (R4 1) (R3 2) (R22 3) (R21 2) (R7 1)) (OUTPUTS (R1 3) (R27 1) (R27' 1)))</t>
+    <t>(TRANSFORM ?C (INPUTS (R1 3) (R2 2)) (OUTPUTS (R1 3) (R21 1) (R21' 1)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R25 1) (R5 3) (R22 2)) (OUTPUTS (R24 3) (R24' 1)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 5) (R4 1) (R3 2) (R22 2) (R5 3)) (OUTPUTS (R1 5) (R25 1) (R25' 3)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 3) (R4 1) ((R7 1) (R21 2) (R22 2)) (OUTPUTS (R1 3) (R27 1) (R27' 1)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 3)  (R5 3) (R6 1) (R21 2)) (OUTPUTS (R1 3) (R26 1) (R26' 1)))</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B5BFC-574A-244D-8E0C-16B41A28F5E3}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
@@ -581,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
@@ -595,7 +595,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>21</v>
@@ -609,10 +609,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
@@ -623,10 +623,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>2</v>

--- a/data/operator_def_1.xlsx
+++ b/data/operator_def_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8107E37-25FC-7149-9245-E5033830CB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D37A231-67C2-AD4F-B54D-2AE920F7202D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="520" windowWidth="24800" windowHeight="14520" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
@@ -96,7 +96,7 @@
     <t>(TRANSFORM ?C (INPUTS (R1 3) (R4 1) ((R7 1) (R21 2) (R22 2)) (OUTPUTS (R1 3) (R27 1) (R27' 1)))</t>
   </si>
   <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 3)  (R5 3) (R6 1) (R21 2)) (OUTPUTS (R1 3) (R26 1) (R26' 1)))</t>
+    <t>(TRANSFORM ?C (INPUTS (R1 3)  (R5 3) (R6 1) (R21 2) (R22 2) (OUTPUTS (R1 3) (R26 1) (R26' 1)))</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B5BFC-574A-244D-8E0C-16B41A28F5E3}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/operator_def_1.xlsx
+++ b/data/operator_def_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D37A231-67C2-AD4F-B54D-2AE920F7202D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8149B17-0AA8-F244-A18D-0A537D08B1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="520" windowWidth="24800" windowHeight="14520" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="1120" yWindow="1820" windowWidth="24460" windowHeight="12840" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="2" r:id="rId1"/>
@@ -87,16 +87,16 @@
     <t>(TRANSFORM ?C (INPUTS (R1 3) (R2 2)) (OUTPUTS (R1 3) (R21 1) (R21' 1)))</t>
   </si>
   <si>
-    <t>(TRANSFORM ?C (INPUTS (R25 1) (R5 3) (R22 2)) (OUTPUTS (R24 3) (R24' 1)))</t>
-  </si>
-  <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 5) (R4 1) (R3 2) (R22 2) (R5 3)) (OUTPUTS (R1 5) (R25 1) (R25' 3)))</t>
-  </si>
-  <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 3) (R4 1) ((R7 1) (R21 2) (R22 2)) (OUTPUTS (R1 3) (R27 1) (R27' 1)))</t>
-  </si>
-  <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 3)  (R5 3) (R6 1) (R21 2) (R22 2) (OUTPUTS (R1 3) (R26 1) (R26' 1)))</t>
+    <t>(TRANSFORM ?C (INPUTS (R25 1) (R5 3) (R21 2)) (OUTPUTS (R24 3) (R24' 1)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 5) (R4 1) (R3 2) (R21 2) (R5 3)) (OUTPUTS (R1 5) (R25 1) (R25' 3)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 3)  (R5 3) (R6 1) (R21 2)) (OUTPUTS (R1 3) (R26 1) (R26' 1)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 3) (R4 1) ((R7 1) (R21 2)) (OUTPUTS (R1 3) (R27 1) (R27' 1)))</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -612,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
@@ -626,7 +626,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>2</v>

--- a/data/operator_def_1.xlsx
+++ b/data/operator_def_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8149B17-0AA8-F244-A18D-0A537D08B1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A72AECA-34F6-5946-B586-6826E783A1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="1820" windowWidth="24460" windowHeight="12840" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>?ARi &lt;= ?Cj1(?Ri)</t>
   </si>
   <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 3) (R2 2) (R21 2)) (OUTPUTS (R22 2) (R22' 2) (R1 3)))</t>
-  </si>
-  <si>
     <t>(TRANSFORM ?C (INPUTS (R1 5) (R2 1) (R3 5) (R21 3)) (OUTPUTS (R1 5) (R23 1) (R23' 1)))</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>(TRANSFORM ?C (INPUTS (R1 3) (R4 1) ((R7 1) (R21 2)) (OUTPUTS (R1 3) (R27 1) (R27' 1)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 3) (R2 1) (R21 1)) (OUTPUTS (R22 1) (R22' 1) (R1 3)))</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B5BFC-574A-244D-8E0C-16B41A28F5E3}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
@@ -581,10 +581,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>2</v>
@@ -595,10 +595,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
@@ -609,10 +609,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
@@ -623,10 +623,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>2</v>
